--- a/biology/Botanique/Choucroute_d'Alsace/Choucroute_d'Alsace.xlsx
+++ b/biology/Botanique/Choucroute_d'Alsace/Choucroute_d'Alsace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Choucroute_d%27Alsace</t>
+          <t>Choucroute_d'Alsace</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La choucroute d’Alsace est une préparation alimentaire traditionnelle de choucroute de la cuisine alsacienne et de la cuisine française, obtenue par fermentation naturelle de variétés sélectionnées de chou cabus.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Choucroute_d%27Alsace</t>
+          <t>Choucroute_d'Alsace</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La choucroute d’Alsace est un légume préparé, obtenu par fermentation lactique de feuilles de choux préalablement découpées en lanières, et mises en cuves de fermentation, en y ajoutant le sel nécessaire à la conservation du produit. L'Alsace produit environ 60 000 tonnes[1] de choux à choucroute sur 500 hectares[2] de culture agricole annuelle, soit environ 70 % de la production française.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La choucroute d’Alsace est un légume préparé, obtenu par fermentation lactique de feuilles de choux préalablement découpées en lanières, et mises en cuves de fermentation, en y ajoutant le sel nécessaire à la conservation du produit. L'Alsace produit environ 60 000 tonnes de choux à choucroute sur 500 hectares de culture agricole annuelle, soit environ 70 % de la production française.
 			Champs agricole de choux, près de Colmar
 			Chou cabus à choucroute d'Alsace.
 			Fabrication artisanale de choucroute
@@ -534,7 +548,7 @@
 			Avec viande et pommes de terre
 			Avec spätzle et lardons, au Marché de Noël de Mulhouse
 			Tarte flambée strasbourgeoise à la choucroute
-En 2007, la consommation annuelle moyenne est estimée à 800 grammes par personne[3].
+En 2007, la consommation annuelle moyenne est estimée à 800 grammes par personne.
 			En bocaux
 			Avec du baeckeoffe en vitrine
 			Vitrine de commerce
@@ -550,7 +564,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Choucroute_d%27Alsace</t>
+          <t>Choucroute_d'Alsace</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -568,13 +582,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La choucroute d’Alsace est un plat très réputé et emblématique de la culture alsacienne, et son étymologie le confirme également : le terme « choucroute » est une adaptation populaire et phonétique du mot alsacien Sürkrüt (Sür, « aigre », et Krüt, « chou »; allemand Sauerkraut, même composition de mot). En France, les premières références  à la cuisson du chou ainsi préparé datent du XVe siècle, des textes du XVIe siècle en attestent la présence à la table des monastères. Au XVIIe siècle, on le trouve sous l’amusant nom de Kompostkrut (« chou compost »)[4] et, au siècle suivant, il se généralise en Alsace.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La choucroute d’Alsace est un plat très réputé et emblématique de la culture alsacienne, et son étymologie le confirme également : le terme « choucroute » est une adaptation populaire et phonétique du mot alsacien Sürkrüt (Sür, « aigre », et Krüt, « chou »; allemand Sauerkraut, même composition de mot). En France, les premières références  à la cuisson du chou ainsi préparé datent du XVe siècle, des textes du XVIe siècle en attestent la présence à la table des monastères. Au XVIIe siècle, on le trouve sous l’amusant nom de Kompostkrut (« chou compost ») et, au siècle suivant, il se généralise en Alsace.
 L'expansion de la choucroute d'Alsace dans le reste de la France se manifeste à partir de 1871, avec l'annexion de l'Alsace par les Allemands, durant la guerre franco-allemande de 1870. Cet événement pousse des milliers d'Alsaciens à quitter l'Alsace, en emportant avec eux leurs habitudes alimentaires.
-Les Alsaciens sont encore aujourd'hui attachés à cette tradition alimentaire et agricole. De nombreux villages organisent en automne leur fête de la choucroute[5]. 
-Krautergersheim, la « capitale de la choucroute d'Alsace », organise la sienne le dernier week-end de septembre et le premier week-end d’octobre depuis 1984. La fête débute traditionnellement le samedi soir avec une dégustation de choucroute et de la musique avec un orchestre alsacien installé sur la Place des fêtes de Krautergersheim[6]. La fête se prolonge ensuite le dimanche avec nombreuses animations, dont un cortège de chars et des groupes folkloriques dans les rues, suivi par plusieurs milliers de personnes[7]. 
-En raison de la crise sanitaire liée à la pandémie de COVID-19, cette fête a cependant été annulée deux années de suite, en 2020 et 2021[7]. 
+Les Alsaciens sont encore aujourd'hui attachés à cette tradition alimentaire et agricole. De nombreux villages organisent en automne leur fête de la choucroute. 
+Krautergersheim, la « capitale de la choucroute d'Alsace », organise la sienne le dernier week-end de septembre et le premier week-end d’octobre depuis 1984. La fête débute traditionnellement le samedi soir avec une dégustation de choucroute et de la musique avec un orchestre alsacien installé sur la Place des fêtes de Krautergersheim. La fête se prolonge ensuite le dimanche avec nombreuses animations, dont un cortège de chars et des groupes folkloriques dans les rues, suivi par plusieurs milliers de personnes. 
+En raison de la crise sanitaire liée à la pandémie de COVID-19, cette fête a cependant été annulée deux années de suite, en 2020 et 2021. 
 L'écomusée d'Alsace, créé en 1984, explique aux visiteurs la fabrication de la choucroute d'Alsace en retraçant les étapes de préparation traditionnelle.
 Les touristes, mais également les Alsaciens, peuvent découvrir la richesse du terroir de la choucroute d'Alsace en suivant la Route de la choucroute d'Alsace, créée en 1991.
 </t>
@@ -587,7 +603,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Choucroute_d%27Alsace</t>
+          <t>Choucroute_d'Alsace</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,7 +621,9 @@
           <t>Culture du chou à choucroute en Alsace</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chou communément employé pour la choucroute était autrefois le chou cabus (ou gros chou Quintal d'Alsace), parfois appelé Quintal de Strasbourg. Cette variété d'automne à la grosse pomme arrondie et légèrement aplatie, rustique et productive, qui peut dépasser sept kilogrammes, n'est plus qu'une curiosité. Des espèces plus précoces, comme Almanach et Pontiac, répondent mieux aux nécessités de la récolte d'août, assez marginale, mais qui permet la commercialisation d'une choucroute, dite nouvelle, dès septembre. Plusieurs hybrides ont été adoptés pour la coupe industrielle qui s'effectue de septembre aux gelées. La variété Fil d'or, qui ressemble au Quintal, semble lui survivre.
 Le chou est une plante de la famille des Brassicacées. Les choux à choucroute relèvent tous du chou cabus, c'est-à-dire des choux pommés à tête ronde et à feuilles lisses.
@@ -623,7 +641,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Choucroute_d%27Alsace</t>
+          <t>Choucroute_d'Alsace</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -641,11 +659,13 @@
           <t>Indication géographique protégée « Choucroute d’Alsace »</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’arrêté du 8 octobre 2012, paru au Journal officiel du 18 octobre 2012, a reconnu l’homologation du cahier des charges de l’Indication géographique protégée « Choucroute d’Alsace », et a marqué l’entrée en application d’une protection nationale transitoire (PNT). Aujourd’hui, la demande d’IGP est toujours en cours d’instruction européenne. L'IGP interdit à un producteur de commercialiser une choucroute comme étant alsacienne, si elle ne satisfait pas à un cahier des charges précis, portant sur des critères de qualité et d’origine géographique et permet « une protection du savoir-faire alsacien ancestral » avec, notamment, une technique de fabrication passant par une « fermentation  exclusivement naturelle[8] ».
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’arrêté du 8 octobre 2012, paru au Journal officiel du 18 octobre 2012, a reconnu l’homologation du cahier des charges de l’Indication géographique protégée « Choucroute d’Alsace », et a marqué l’entrée en application d’une protection nationale transitoire (PNT). Aujourd’hui, la demande d’IGP est toujours en cours d’instruction européenne. L'IGP interdit à un producteur de commercialiser une choucroute comme étant alsacienne, si elle ne satisfait pas à un cahier des charges précis, portant sur des critères de qualité et d’origine géographique et permet « une protection du savoir-faire alsacien ancestral » avec, notamment, une technique de fabrication passant par une « fermentation  exclusivement naturelle ».
 Selon le cahier des charges de l’appellation, pour bénéficier de l’appellation, la transformation du chou doit être faite dans la région et les choux doivent peser au minimum trois kilos chacun, et avoir « un maximum de trois feuilles légèrement vertes sur le dessus du chou après enlèvement des feuilles enveloppantes ». Ce dernier prévoit également une fermentation naturelle, c’est-à-dire sans ajout de ferments ni modification de la température.
-Pour la choucroute vendue dans sa version cuite (elle peut être proposée à la vente, également crue), la cuisson doit avoir lieu en Alsace, dans des cuiseurs (cuisson en continu) ou dans des marmites. Les choucroutiers sont tenus d’utiliser de l’alcool alsacien (bière, vin blanc, ou crémant du vignoble d'Alsace), et du saindoux ou de la graisse d’oie en guise de matière grasse animale[9].
+Pour la choucroute vendue dans sa version cuite (elle peut être proposée à la vente, également crue), la cuisson doit avoir lieu en Alsace, dans des cuiseurs (cuisson en continu) ou dans des marmites. Les choucroutiers sont tenus d’utiliser de l’alcool alsacien (bière, vin blanc, ou crémant du vignoble d'Alsace), et du saindoux ou de la graisse d’oie en guise de matière grasse animale.
 </t>
         </is>
       </c>
